--- a/medicine/Enfance/Agathe_Portail/Agathe_Portail.xlsx
+++ b/medicine/Enfance/Agathe_Portail/Agathe_Portail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agathe Portail est une autrice française de romans policier[1] et de romans jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agathe Portail est une autrice française de romans policier et de romans jeunesse.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Jublains (Mayenne)[2], après des études de commerce, elle travaille pour le milieu viticole avant de décider de se consacrer à l'écriture tout en contribuant au média Les Fabuleuses au foyer[3]. Avec d’autres autrices, elle crée le collectif Les Louves du Polar afin de promouvoir le roman policier féminin français.
-Mariée, mère de quatre enfants, elle est membre de l’équipe nationale des Scouts unitaires de France[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Jublains (Mayenne), après des études de commerce, elle travaille pour le milieu viticole avant de décider de se consacrer à l'écriture tout en contribuant au média Les Fabuleuses au foyer. Avec d’autres autrices, elle crée le collectif Les Louves du Polar afin de promouvoir le roman policier féminin français.
+Mariée, mère de quatre enfants, elle est membre de l’équipe nationale des Scouts unitaires de France.
 </t>
         </is>
       </c>
@@ -543,16 +557,52 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'Année du gel, Calmann-Lévy (2020) - J'ai lu, 2022[5]
-Piqûres de rappel, Calmann-Lévy (2021)[6]
-De la même veine, Calmann-Lévy (2022)[7]
-Les Âmes torrentielles, Actes Sud, 2023[8],[9],[10],[11]
-Le Cercle des audacieux. Au secours de Notre-Dame
-Tome 1 : Panique sur le chantier, Emmanuel Jeunesse
-Tome 2 : L'Affaire Victor H., Emmanuel Jeunesse[12]
-Tome 3 : Opération Dynamite, Emmanuel Jeunesse[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Année du gel, Calmann-Lévy (2020) - J'ai lu, 2022
+Piqûres de rappel, Calmann-Lévy (2021)
+De la même veine, Calmann-Lévy (2022)
+Les Âmes torrentielles, Actes Sud, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agathe_Portail</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agathe_Portail</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le Cercle des audacieux. Au secours de Notre-Dame</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tome 1 : Panique sur le chantier, Emmanuel Jeunesse
+Tome 2 : L'Affaire Victor H., Emmanuel Jeunesse
+Tome 3 : Opération Dynamite, Emmanuel Jeunesse</t>
         </is>
       </c>
     </row>
